--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2676.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2676.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160909278686066</v>
+        <v>0.9803115129470825</v>
       </c>
       <c r="B1">
-        <v>2.421206342417277</v>
+        <v>1.120945930480957</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.40932834148407</v>
       </c>
       <c r="D1">
-        <v>2.329715386100763</v>
+        <v>2.887648582458496</v>
       </c>
       <c r="E1">
-        <v>1.211679142673069</v>
+        <v>4.316815853118896</v>
       </c>
     </row>
   </sheetData>
